--- a/config_4.27/welfare_activity_server.xlsx
+++ b/config_4.27/welfare_activity_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,12 @@
     <t>act_type|活动类型</t>
   </si>
   <si>
+    <t>act_lb_name|礼包名称</t>
+  </si>
+  <si>
+    <t>every_day_award_value|每日登陆奖励金币</t>
+  </si>
+  <si>
     <t>libao_id_1|1号礼包id</t>
   </si>
   <si>
@@ -37,6 +43,9 @@
   </si>
   <si>
     <t>wylft_mslb</t>
+  </si>
+  <si>
+    <t>秒杀礼包</t>
   </si>
   <si>
     <t>real_cfg_id</t>
@@ -125,22 +134,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,32 +169,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,25 +192,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,33 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,8 +238,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,67 +292,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,115 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,33 +477,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,6 +506,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,17 +545,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,21 +1065,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="6" width="22.25" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="2" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="8" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,30 +1092,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="5">
         <v>10533</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F2" s="5">
         <v>10534</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
@@ -1127,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1141,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1170,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1191,13 +1206,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>38888</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1214,13 +1229,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>20000000</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1237,13 +1252,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>3000000</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -1260,13 +1275,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>1800000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
@@ -1283,13 +1298,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>1200000</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>12</v>
@@ -1306,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>1000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2">
         <v>28</v>
@@ -1329,13 +1344,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>800000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
         <v>52</v>
@@ -1366,22 +1381,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
